--- a/06-Mandate-IR_and_Constraints/MorMee-PowerConstraints.xlsx
+++ b/06-Mandate-IR_and_Constraints/MorMee-PowerConstraints.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7608" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="35" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="147">
   <si>
     <t>Cardinality</t>
   </si>
@@ -348,9 +348,6 @@
     <t>8e186f2f-de44-4f58-ba4f-1ff326a771eb</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>ca00c375-8d8a-477d-a301-e139e85308c8</t>
   </si>
   <si>
@@ -451,6 +448,21 @@
   </si>
   <si>
     <t>[e.g. 1: BE, ES, IT, FR], ex. 2: [EU-MS-ALL], ex. 3: [EU-EEA-ALL], ex. 4: [EFTA-ONLY]</t>
+  </si>
+  <si>
+    <t>EU-MS+MAX-CONTRACT+VALIDITY_PERIOD</t>
+  </si>
+  <si>
+    <t>Constraint name</t>
+  </si>
+  <si>
+    <t>Max contract value per EU-MS and validity period</t>
+  </si>
+  <si>
+    <t>Maximum contract amount value per EU MS, for specific periods and MS</t>
+  </si>
+  <si>
+    <t>The period of validity to use the Power under this contractual constraint and the specified countries</t>
   </si>
 </sst>
 </file>
@@ -1416,19 +1428,19 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -1442,37 +1454,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55:XFD57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.73046875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.73046875" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73046875" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="16" width="3.73046875" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.77734375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.77734375" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="16" width="3.77734375" style="2" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.86328125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.88671875" style="2" customWidth="1"/>
     <col min="19" max="19" width="65" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.73046875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="14.796875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="10.59765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="32.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.59765625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="9.1328125" style="17" customWidth="1"/>
-    <col min="27" max="27" width="11.3984375" style="16" customWidth="1"/>
-    <col min="28" max="28" width="36.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="11.3984375" style="2"/>
+    <col min="20" max="20" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="14.77734375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="9.109375" style="17" customWidth="1"/>
+    <col min="27" max="27" width="11.44140625" style="16" customWidth="1"/>
+    <col min="28" max="28" width="36.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19">
         <v>1</v>
       </c>
@@ -1564,7 +1576,7 @@
       </c>
       <c r="AD1" s="19"/>
     </row>
-    <row r="2" spans="1:30" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
       <c r="B2" s="20" t="s">
         <v>1</v>
@@ -1633,7 +1645,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -1686,7 +1698,7 @@
       </c>
       <c r="AC3" s="25"/>
     </row>
-    <row r="4" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1733,7 +1745,7 @@
       </c>
       <c r="AC4" s="7"/>
     </row>
-    <row r="5" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1778,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -1821,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1857,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="V7" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W7" s="27" t="s">
         <v>4</v>
@@ -1884,7 +1896,7 @@
         <v>To be defined, based on ISO country codes</v>
       </c>
     </row>
-    <row r="8" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -1917,7 +1929,7 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
     </row>
-    <row r="9" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="23" t="s">
         <v>30</v>
@@ -1950,7 +1962,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>2</v>
       </c>
@@ -2003,7 +2015,7 @@
       </c>
       <c r="AC10" s="25"/>
     </row>
-    <row r="11" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2050,7 +2062,7 @@
       </c>
       <c r="AC11" s="7"/>
     </row>
-    <row r="12" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2095,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -2138,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2203,7 +2215,7 @@
         <v>To be defined</v>
       </c>
     </row>
-    <row r="15" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
@@ -2236,7 +2248,7 @@
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
     </row>
-    <row r="16" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="23" t="s">
         <v>30</v>
@@ -2269,7 +2281,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>3</v>
       </c>
@@ -2322,7 +2334,7 @@
       </c>
       <c r="AC17" s="25"/>
     </row>
-    <row r="18" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -2369,7 +2381,7 @@
       </c>
       <c r="AC18" s="7"/>
     </row>
-    <row r="19" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2414,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -2455,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2515,7 +2527,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
@@ -2548,7 +2560,7 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
     </row>
-    <row r="23" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="23" t="s">
         <v>30</v>
@@ -2581,7 +2593,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>4</v>
       </c>
@@ -2634,7 +2646,7 @@
       </c>
       <c r="AC24" s="25"/>
     </row>
-    <row r="25" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -2681,7 +2693,7 @@
       </c>
       <c r="AC25" s="7"/>
     </row>
-    <row r="26" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -2726,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
@@ -2757,7 +2769,7 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5" t="s">
@@ -2767,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2827,7 +2839,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
@@ -2860,7 +2872,7 @@
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
     </row>
-    <row r="30" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="23" t="s">
         <v>30</v>
@@ -2893,7 +2905,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>5</v>
       </c>
@@ -2938,7 +2950,7 @@
       <c r="X31" s="23"/>
       <c r="Y31" s="23"/>
       <c r="Z31" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA31" s="25"/>
       <c r="AB31" s="25" t="s">
@@ -2946,7 +2958,7 @@
       </c>
       <c r="AC31" s="25"/>
     </row>
-    <row r="32" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -2985,7 +2997,7 @@
       <c r="X32" s="30"/>
       <c r="Y32" s="30"/>
       <c r="Z32" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA32" s="8"/>
       <c r="AB32" s="7" t="s">
@@ -2993,7 +3005,7 @@
       </c>
       <c r="AC32" s="7"/>
     </row>
-    <row r="33" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -3028,7 +3040,7 @@
       <c r="X33" s="31"/>
       <c r="Y33" s="31"/>
       <c r="Z33" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12" t="s">
@@ -3038,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
@@ -3069,7 +3081,7 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5" t="s">
@@ -3079,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3141,7 +3153,7 @@
       </c>
       <c r="AC35" s="33"/>
     </row>
-    <row r="36" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
@@ -3174,7 +3186,7 @@
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
     </row>
-    <row r="37" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="23" t="s">
         <v>30</v>
@@ -3207,7 +3219,7 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>6</v>
       </c>
@@ -3252,7 +3264,7 @@
       <c r="X38" s="23"/>
       <c r="Y38" s="23"/>
       <c r="Z38" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA38" s="25"/>
       <c r="AB38" s="25" t="s">
@@ -3260,7 +3272,7 @@
       </c>
       <c r="AC38" s="25"/>
     </row>
-    <row r="39" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -3299,7 +3311,7 @@
       <c r="X39" s="30"/>
       <c r="Y39" s="30"/>
       <c r="Z39" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA39" s="8"/>
       <c r="AB39" s="7" t="s">
@@ -3307,7 +3319,7 @@
       </c>
       <c r="AC39" s="7"/>
     </row>
-    <row r="40" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -3342,7 +3354,7 @@
       <c r="X40" s="31"/>
       <c r="Y40" s="31"/>
       <c r="Z40" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA40" s="12"/>
       <c r="AB40" s="12" t="s">
@@ -3352,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
@@ -3383,7 +3395,7 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5" t="s">
@@ -3393,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3456,7 +3468,7 @@
         <v>e.g. for Public Sector Contracts</v>
       </c>
     </row>
-    <row r="43" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
@@ -3489,7 +3501,7 @@
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
     </row>
-    <row r="44" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="23" t="s">
         <v>30</v>
@@ -3522,7 +3534,7 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <v>7</v>
       </c>
@@ -3567,7 +3579,7 @@
       <c r="X45" s="23"/>
       <c r="Y45" s="23"/>
       <c r="Z45" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA45" s="25"/>
       <c r="AB45" s="25" t="s">
@@ -3575,7 +3587,7 @@
       </c>
       <c r="AC45" s="25"/>
     </row>
-    <row r="46" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -3614,7 +3626,7 @@
       <c r="X46" s="30"/>
       <c r="Y46" s="30"/>
       <c r="Z46" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA46" s="8"/>
       <c r="AB46" s="7" t="s">
@@ -3622,7 +3634,7 @@
       </c>
       <c r="AC46" s="7"/>
     </row>
-    <row r="47" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -3657,7 +3669,7 @@
       <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
       <c r="Z47" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA47" s="12"/>
       <c r="AB47" s="12" t="s">
@@ -3667,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
@@ -3700,7 +3712,7 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5" t="s">
@@ -3710,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3773,7 +3785,7 @@
         <v>To be discussed</v>
       </c>
     </row>
-    <row r="50" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
@@ -3806,7 +3818,7 @@
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
     </row>
-    <row r="51" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="23" t="s">
         <v>30</v>
@@ -3839,7 +3851,7 @@
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
     </row>
-    <row r="52" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <v>8</v>
       </c>
@@ -3868,10 +3880,10 @@
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
       <c r="R52" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S52" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T52" s="24" t="s">
         <v>53</v>
@@ -3884,7 +3896,7 @@
       <c r="X52" s="23"/>
       <c r="Y52" s="23"/>
       <c r="Z52" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA52" s="25"/>
       <c r="AB52" s="25" t="s">
@@ -3892,7 +3904,7 @@
       </c>
       <c r="AC52" s="25"/>
     </row>
-    <row r="53" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -3931,7 +3943,7 @@
       <c r="X53" s="30"/>
       <c r="Y53" s="30"/>
       <c r="Z53" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA53" s="8"/>
       <c r="AB53" s="7" t="s">
@@ -3939,7 +3951,7 @@
       </c>
       <c r="AC53" s="7"/>
     </row>
-    <row r="54" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
@@ -3974,7 +3986,7 @@
       <c r="X54" s="31"/>
       <c r="Y54" s="31"/>
       <c r="Z54" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA54" s="12"/>
       <c r="AB54" s="12" t="s">
@@ -3984,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
@@ -4015,7 +4027,7 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5" t="s">
@@ -4025,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4086,7 +4098,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
@@ -4119,7 +4131,7 @@
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
     </row>
-    <row r="58" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="23" t="s">
         <v>30</v>
@@ -4160,30 +4172,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.73046875" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.19921875" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" customWidth="1"/>
-    <col min="6" max="6" width="1.86328125" customWidth="1"/>
-    <col min="7" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="2.46484375" customWidth="1"/>
+    <col min="1" max="1" width="2" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" customWidth="1"/>
+    <col min="7" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.44140625" customWidth="1"/>
     <col min="17" max="17" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.3984375" customWidth="1"/>
-    <col min="20" max="20" width="8.59765625" customWidth="1"/>
-    <col min="21" max="21" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.73046875" customWidth="1"/>
-    <col min="25" max="25" width="12.796875" customWidth="1"/>
-    <col min="28" max="28" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" customWidth="1"/>
+    <col min="25" max="25" width="12.77734375" customWidth="1"/>
+    <col min="28" max="28" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37">
         <v>1</v>
       </c>
@@ -4254,7 +4269,7 @@
         <v>22</v>
       </c>
       <c r="Y1" s="19">
-        <f t="shared" ref="Y1:AC1" si="0">X1+1</f>
+        <f t="shared" ref="Y1:AB1" si="0">X1+1</f>
         <v>23</v>
       </c>
       <c r="Z1" s="19">
@@ -4270,12 +4285,12 @@
         <v>26</v>
       </c>
       <c r="AC1" s="19">
-        <f t="shared" si="0"/>
+        <f>AB1+1</f>
         <v>27</v>
       </c>
       <c r="AD1" s="19"/>
     </row>
-    <row r="2" spans="1:30" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
       <c r="B2" s="20" t="s">
         <v>1</v>
@@ -4308,7 +4323,7 @@
         <v>27</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="S2" s="20" t="s">
         <v>39</v>
@@ -4344,7 +4359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -4372,16 +4387,16 @@
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="S3" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="T3" s="24" t="s">
         <v>126</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>127</v>
       </c>
       <c r="U3" s="26"/>
       <c r="V3" s="32"/>
@@ -4391,7 +4406,7 @@
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
       <c r="Z3" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA3" s="25" t="s">
         <v>1</v>
@@ -4401,7 +4416,7 @@
       </c>
       <c r="AC3" s="25"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
@@ -4440,7 +4455,7 @@
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
       <c r="Z4" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA4" s="7" t="s">
         <v>1</v>
@@ -4450,7 +4465,7 @@
       </c>
       <c r="AC4" s="7"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>1</v>
       </c>
@@ -4485,7 +4500,7 @@
       <c r="X5" s="31"/>
       <c r="Y5" s="31"/>
       <c r="Z5" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA5" s="12" t="s">
         <v>1</v>
@@ -4497,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -4519,7 +4534,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="14"/>
@@ -4530,7 +4545,7 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>1</v>
@@ -4542,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="39"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4578,7 +4593,7 @@
         <v>12</v>
       </c>
       <c r="V7" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W7" s="27" t="s">
         <v>4</v>
@@ -4605,7 +4620,7 @@
         <v>To be defined, based on ISO country codes</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4627,7 +4642,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T8" s="13"/>
       <c r="U8" s="14"/>
@@ -4638,7 +4653,7 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>1</v>
@@ -4650,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4688,7 +4703,7 @@
         <v>12</v>
       </c>
       <c r="V9" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W9" s="27">
         <v>1</v>
@@ -4715,7 +4730,7 @@
         <v>e.g. for Public Sector Contracts</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4748,7 +4763,7 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="39"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
@@ -4781,7 +4796,7 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
       <c r="B12" s="23" t="s">
         <v>30</v>
@@ -4814,6 +4829,613 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
+    <row r="13" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
+        <v>2</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="U13" s="26"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA13" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="25"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="7"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="39"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="T16" s="13"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="33" t="str">
+        <f>DED!$B$4</f>
+        <v>EU_MS_ACTING_SCOPE</v>
+      </c>
+      <c r="R17" s="33" t="str">
+        <f>DED!$C$4</f>
+        <v>EU MS acting scope</v>
+      </c>
+      <c r="S17" s="33" t="str">
+        <f>DED!$D$4</f>
+        <v>The country code of the EU Member State where this Person can act</v>
+      </c>
+      <c r="T17" s="33"/>
+      <c r="U17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="27" t="str">
+        <f>DED!$E$4</f>
+        <v>CodeType</v>
+      </c>
+      <c r="Y17" s="27" t="str">
+        <f>DED!$F$4</f>
+        <v>skos:Concept</v>
+      </c>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="33" t="str">
+        <f>IF(DED!$G$4=0,"",DED!$G$4)</f>
+        <v>EU-MS-ActingScopes</v>
+      </c>
+      <c r="AB17" s="27" t="str">
+        <f>IF(DED!$H$4=0,"",DED!$H$4)</f>
+        <v/>
+      </c>
+      <c r="AC17" s="33" t="str">
+        <f>IF(DED!$I$4=0,"",DED!$I$4)</f>
+        <v>To be defined, based on ISO country codes</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="T18" s="13"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="14">
+        <v>1</v>
+      </c>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="33" t="str">
+        <f>DED!$B$9</f>
+        <v>MAX_CONTRACT_THRESHOLD</v>
+      </c>
+      <c r="R19" s="33" t="str">
+        <f>DED!$C$9</f>
+        <v>Maximum contract value threshold</v>
+      </c>
+      <c r="S19" s="33" t="str">
+        <f>DED!$D$9</f>
+        <v>The maximum amount for contracts signed by a Mandatee representing a Natural or Legal Person</v>
+      </c>
+      <c r="T19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="W19" s="27">
+        <v>1</v>
+      </c>
+      <c r="X19" s="27" t="str">
+        <f>DED!$E$9</f>
+        <v>AmountType</v>
+      </c>
+      <c r="Y19" s="27" t="str">
+        <f>DED!$F$9</f>
+        <v>ccts:Amount</v>
+      </c>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="33" t="str">
+        <f>IF(DED!$G$8=0,"",DED!$G$8)</f>
+        <v/>
+      </c>
+      <c r="AB19" s="27" t="str">
+        <f>IF(DED!$H$9=0,"",DED!$H$9)</f>
+        <v>"currencyId" compulsory</v>
+      </c>
+      <c r="AC19" s="33" t="str">
+        <f>IF(DED!$I$9=0,"",DED!$I$9)</f>
+        <v>e.g. for Public Sector Contracts</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="T20" s="13"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="14">
+        <v>1</v>
+      </c>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="33" t="str">
+        <f>DED!$B$11</f>
+        <v>TEMPORAL_LAPSE</v>
+      </c>
+      <c r="R21" s="33" t="str">
+        <f>DED!$C$11</f>
+        <v>Power use validity period</v>
+      </c>
+      <c r="S21" s="33" t="str">
+        <f>DED!$D$11</f>
+        <v>The lapse of time during which a power can be used</v>
+      </c>
+      <c r="T21" s="33"/>
+      <c r="U21" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" s="33"/>
+      <c r="W21" s="27">
+        <v>1</v>
+      </c>
+      <c r="X21" s="27" t="str">
+        <f>DED!$E$11</f>
+        <v>PeriodType</v>
+      </c>
+      <c r="Y21" s="27" t="str">
+        <f>DED!$F$11</f>
+        <v>ubl:Period</v>
+      </c>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="33" t="str">
+        <f>IF(DED!$G$11=0,"",DED!$G$11)</f>
+        <v/>
+      </c>
+      <c r="AB21" s="27" t="str">
+        <f>IF(DED!$H$10=0,"",DED!$H$10)</f>
+        <v/>
+      </c>
+      <c r="AC21" s="33" t="str">
+        <f>IF(DED!$I$11=0,"",DED!$I$11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="39"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" s="39"/>
+      <c r="B25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4827,25 +5449,25 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.9296875" customWidth="1"/>
-    <col min="7" max="7" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
     <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4874,7 +5496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4900,7 +5522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4926,7 +5548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4946,10 +5568,10 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4969,10 +5591,10 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4995,7 +5617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5015,13 +5637,13 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5047,67 +5669,67 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
         <v>139</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" t="s">
         <v>140</v>
-      </c>
-      <c r="D11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" t="s">
-        <v>141</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>

--- a/06-Mandate-IR_and_Constraints/MorMee-PowerConstraints.xlsx
+++ b/06-Mandate-IR_and_Constraints/MorMee-PowerConstraints.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7608" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12612" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="35" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="148">
   <si>
     <t>Cardinality</t>
   </si>
@@ -384,9 +384,6 @@
     <t>"currencyId" compulsory</t>
   </si>
   <si>
-    <t>EU-MS_MAX-CONTRACT</t>
-  </si>
-  <si>
     <t>Max contract value per EU-MS</t>
   </si>
   <si>
@@ -438,9 +435,6 @@
     <t>[e.g. 1: BE, ES, IT, FR], ex. 2: [EU-MS-ALL], ex. 3: [EU-EEA-ALL], ex. 4: [EFTA-ONLY]</t>
   </si>
   <si>
-    <t>EU-MS+MAX-CONTRACT+VALIDITY_PERIOD</t>
-  </si>
-  <si>
     <t>Constraint name</t>
   </si>
   <si>
@@ -460,6 +454,18 @@
   </si>
   <si>
     <t>Administrative constraint about the power to act only in certain Public Administration Level</t>
+  </si>
+  <si>
+    <t>aa9d0e05-f45a-4a45-8be3-d02fc5369bd6</t>
+  </si>
+  <si>
+    <t>1ea3df35-8f7e-4d45-8d2d-6135764270aa</t>
+  </si>
+  <si>
+    <t>d7c1e48f-a966-4c1b-bfbd-204e448a0cf3</t>
+  </si>
+  <si>
+    <t>de99c7ef-8f1e-464f-a98c-89201ed0dbf3</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1461,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,10 +1614,10 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S2" s="20" t="s">
         <v>50</v>
@@ -1863,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V7" s="27" t="s">
         <v>4</v>
@@ -1985,7 +1991,7 @@
         <v>52</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S10" s="24" t="s">
         <v>53</v>
@@ -3819,10 +3825,10 @@
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R52" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S52" s="24" t="s">
         <v>51</v>
@@ -4107,7 +4113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4120,7 +4128,7 @@
     <col min="16" max="16" width="2.44140625" customWidth="1"/>
     <col min="17" max="17" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="46.44140625" customWidth="1"/>
-    <col min="19" max="19" width="8.5546875" customWidth="1"/>
+    <col min="19" max="19" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.77734375" customWidth="1"/>
     <col min="24" max="24" width="12.77734375" customWidth="1"/>
@@ -4256,7 +4264,7 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R2" s="20" t="s">
         <v>37</v>
@@ -4320,14 +4328,12 @@
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="R3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>120</v>
-      </c>
+      <c r="S3" s="23"/>
       <c r="T3" s="26"/>
       <c r="U3" s="31"/>
       <c r="V3" s="24" t="s">
@@ -4336,7 +4342,7 @@
       <c r="W3" s="23"/>
       <c r="X3" s="23"/>
       <c r="Y3" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z3" s="25" t="s">
         <v>1</v>
@@ -4384,7 +4390,7 @@
       <c r="W4" s="29"/>
       <c r="X4" s="29"/>
       <c r="Y4" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z4" s="7" t="s">
         <v>1</v>
@@ -4428,7 +4434,7 @@
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z5" s="12" t="s">
         <v>1</v>
@@ -4461,7 +4467,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="14"/>
@@ -4472,7 +4478,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z6" s="5" t="s">
         <v>1</v>
@@ -4519,7 +4525,7 @@
         <v>12</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V7" s="27" t="s">
         <v>4</v>
@@ -4567,7 +4573,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="14"/>
@@ -4578,7 +4584,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z8" s="5" t="s">
         <v>1</v>
@@ -4625,7 +4631,7 @@
         <v>12</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V9" s="27">
         <v>1</v>
@@ -4776,14 +4782,12 @@
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="S13" s="23" t="s">
-        <v>138</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="S13" s="23"/>
       <c r="T13" s="26"/>
       <c r="U13" s="31"/>
       <c r="V13" s="24" t="s">
@@ -4792,7 +4796,7 @@
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
       <c r="Y13" s="23" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="Z13" s="25" t="s">
         <v>1</v>
@@ -4840,7 +4844,7 @@
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
       <c r="Y14" s="33" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="Z14" s="7" t="s">
         <v>1</v>
@@ -4884,7 +4888,7 @@
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
       <c r="Y15" s="10" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="Z15" s="12" t="s">
         <v>1</v>
@@ -4917,7 +4921,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="14"/>
@@ -4928,7 +4932,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="15" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="Z16" s="5" t="s">
         <v>1</v>
@@ -4975,7 +4979,7 @@
         <v>12</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V17" s="27" t="s">
         <v>4</v>
@@ -5023,7 +5027,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="14"/>
@@ -5034,7 +5038,7 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z18" s="5" t="s">
         <v>1</v>
@@ -5081,7 +5085,7 @@
         <v>12</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V19" s="27">
         <v>1</v>
@@ -5129,7 +5133,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="14"/>
@@ -5340,6 +5344,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5576,16 +5581,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
         <v>134</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
         <v>135</v>
-      </c>
-      <c r="D11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" t="s">
-        <v>136</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>

--- a/06-Mandate-IR_and_Constraints/MorMee-PowerConstraints.xlsx
+++ b/06-Mandate-IR_and_Constraints/MorMee-PowerConstraints.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12612" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12612"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="35" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="156">
   <si>
     <t>Cardinality</t>
   </si>
@@ -42,15 +42,6 @@
     <t>Code List</t>
   </si>
   <si>
-    <t xml:space="preserve">These information requirements are actually the "criteria" that the SP needs to evaluate to unlock the access (eAccess) to its Service. </t>
-  </si>
-  <si>
-    <t>Thus the re-use of the Core Criterion and Evidence Vocabulary to model these information requirements.</t>
-  </si>
-  <si>
-    <t>This book contains the "data structures" (or data "shapes") used to express information requirements needed by Service Provider that cannot be expressed by means of a Schema (e.g. an XSD Schema).</t>
-  </si>
-  <si>
     <t>{Group</t>
   </si>
   <si>
@@ -466,13 +457,46 @@
   </si>
   <si>
     <t>de99c7ef-8f1e-464f-a98c-89201ed0dbf3</t>
+  </si>
+  <si>
+    <t>Max quantity of business creation for x years</t>
+  </si>
+  <si>
+    <t>Maximum quantity of business that can be created by the mandator in a period of time</t>
+  </si>
+  <si>
+    <t>[e.g. 10]</t>
+  </si>
+  <si>
+    <t>[e..g 3 YEARS]</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/tools/ecertis/isa2/pam#MaxQuantityBusinessCreationAndPeriodConstraint</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/tools/ecertis/isa2/pam#MaxQuantityBusinessCreationGroup</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/tools/ecertis/isa2/pam#MaxQuantityBusinessCreationProperty</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/tools/ecertis/isa2/pam#PowerUseValidityPeriodGroup</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/tools/ecertis/isa2/pam#PowerUseValidityPeriodProperty</t>
+  </si>
+  <si>
+    <t>This book contains the "data structures" (or data "shapes") used to express constraints on the use of Powers by Mandatees and Mandators with delegated Powers.</t>
+  </si>
+  <si>
+    <t>The data structures are organised based on the Core Criterion and Evidence Vocabulary developed by ISA2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -601,6 +625,13 @@
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -948,7 +979,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -992,8 +1023,9 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1103,8 +1135,17 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1139,6 +1180,7 @@
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hipervínculo" xfId="42"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1425,27 +1467,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:C6"/>
+  <dimension ref="C4:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1614,40 +1651,40 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X2" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="AA2" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1655,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -1678,13 +1715,13 @@
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T3" s="26"/>
       <c r="U3" s="31"/>
@@ -1694,7 +1731,7 @@
       <c r="W3" s="23"/>
       <c r="X3" s="23"/>
       <c r="Y3" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="25"/>
       <c r="AA3" s="25" t="s">
@@ -1710,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1726,10 +1763,10 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -1740,7 +1777,7 @@
       <c r="W4" s="29"/>
       <c r="X4" s="29"/>
       <c r="Y4" s="33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Z4" s="8"/>
       <c r="AA4" s="7" t="s">
@@ -1782,7 +1819,7 @@
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12" t="s">
@@ -1796,7 +1833,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1813,7 +1850,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S6" s="40"/>
       <c r="T6" s="14"/>
@@ -1824,7 +1861,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5" t="s">
@@ -1839,7 +1876,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -1866,10 +1903,10 @@
         <v>EU_MS_ACTING_SCOPE</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V7" s="27" t="s">
         <v>4</v>
@@ -1900,7 +1937,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1931,7 +1968,7 @@
     <row r="9" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1965,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -1988,13 +2025,13 @@
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
       <c r="Q10" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T10" s="26"/>
       <c r="U10" s="31"/>
@@ -2004,7 +2041,7 @@
       <c r="W10" s="23"/>
       <c r="X10" s="23"/>
       <c r="Y10" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="25"/>
       <c r="AA10" s="25" t="s">
@@ -2020,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2036,10 +2073,10 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
@@ -2050,7 +2087,7 @@
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
       <c r="Y11" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z11" s="8"/>
       <c r="AA11" s="7" t="s">
@@ -2092,7 +2129,7 @@
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
       <c r="Y12" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12" t="s">
@@ -2106,7 +2143,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2123,7 +2160,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S13" s="40"/>
       <c r="T13" s="14"/>
@@ -2134,7 +2171,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5" t="s">
@@ -2149,7 +2186,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -2176,10 +2213,10 @@
         <v>ADMINISTRATION_LEVEL</v>
       </c>
       <c r="T14" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V14" s="27" t="s">
         <v>4</v>
@@ -2210,7 +2247,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2241,7 +2278,7 @@
     <row r="16" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2275,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -2298,13 +2335,13 @@
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S17" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T17" s="26"/>
       <c r="U17" s="31"/>
@@ -2314,7 +2351,7 @@
       <c r="W17" s="23"/>
       <c r="X17" s="23"/>
       <c r="Y17" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z17" s="25"/>
       <c r="AA17" s="25" t="s">
@@ -2330,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2346,10 +2383,10 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
@@ -2360,7 +2397,7 @@
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
       <c r="Y18" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="7" t="s">
@@ -2402,7 +2439,7 @@
       <c r="W19" s="30"/>
       <c r="X19" s="30"/>
       <c r="Y19" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12" t="s">
@@ -2416,7 +2453,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2442,7 +2479,7 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5" t="s">
@@ -2457,7 +2494,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -2484,7 +2521,7 @@
         <v>MAX_PAYMENT_THRESHOLD</v>
       </c>
       <c r="T21" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U21" s="32"/>
       <c r="V21" s="27">
@@ -2513,7 +2550,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2544,7 +2581,7 @@
     <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2578,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -2601,13 +2638,13 @@
       <c r="O24" s="23"/>
       <c r="P24" s="23"/>
       <c r="Q24" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R24" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S24" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T24" s="26"/>
       <c r="U24" s="31"/>
@@ -2617,7 +2654,7 @@
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
       <c r="Y24" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Z24" s="25"/>
       <c r="AA24" s="25" t="s">
@@ -2633,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -2649,10 +2686,10 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
@@ -2663,7 +2700,7 @@
       <c r="W25" s="29"/>
       <c r="X25" s="29"/>
       <c r="Y25" s="33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="7" t="s">
@@ -2705,7 +2742,7 @@
       <c r="W26" s="30"/>
       <c r="X26" s="30"/>
       <c r="Y26" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12" t="s">
@@ -2719,7 +2756,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2745,7 +2782,7 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5" t="s">
@@ -2760,7 +2797,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -2787,7 +2824,7 @@
         <v>MAX_PURCHASE_THRESHOLD</v>
       </c>
       <c r="T28" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U28" s="32"/>
       <c r="V28" s="27">
@@ -2816,7 +2853,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2847,7 +2884,7 @@
     <row r="30" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2881,7 +2918,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -2904,13 +2941,13 @@
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
       <c r="Q31" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R31" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S31" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T31" s="26"/>
       <c r="U31" s="31"/>
@@ -2920,7 +2957,7 @@
       <c r="W31" s="23"/>
       <c r="X31" s="23"/>
       <c r="Y31" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Z31" s="25"/>
       <c r="AA31" s="25" t="s">
@@ -2936,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2952,10 +2989,10 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
@@ -2966,7 +3003,7 @@
       <c r="W32" s="29"/>
       <c r="X32" s="29"/>
       <c r="Y32" s="33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Z32" s="8"/>
       <c r="AA32" s="7" t="s">
@@ -3008,7 +3045,7 @@
       <c r="W33" s="30"/>
       <c r="X33" s="30"/>
       <c r="Y33" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12" t="s">
@@ -3022,7 +3059,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -3048,7 +3085,7 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5" t="s">
@@ -3063,7 +3100,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -3090,7 +3127,7 @@
         <v>MAX_BUSINESS_CREATION</v>
       </c>
       <c r="T35" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U35" s="32">
         <v>1000000</v>
@@ -3121,7 +3158,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3152,7 +3189,7 @@
     <row r="37" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3186,7 +3223,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
@@ -3209,13 +3246,13 @@
       <c r="O38" s="23"/>
       <c r="P38" s="23"/>
       <c r="Q38" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R38" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S38" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T38" s="26"/>
       <c r="U38" s="31"/>
@@ -3225,7 +3262,7 @@
       <c r="W38" s="23"/>
       <c r="X38" s="23"/>
       <c r="Y38" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Z38" s="25"/>
       <c r="AA38" s="25" t="s">
@@ -3241,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -3257,10 +3294,10 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
@@ -3271,7 +3308,7 @@
       <c r="W39" s="29"/>
       <c r="X39" s="29"/>
       <c r="Y39" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="7" t="s">
@@ -3313,7 +3350,7 @@
       <c r="W40" s="30"/>
       <c r="X40" s="30"/>
       <c r="Y40" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12" t="s">
@@ -3327,7 +3364,7 @@
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -3353,7 +3390,7 @@
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5" t="s">
@@ -3368,7 +3405,7 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
@@ -3395,7 +3432,7 @@
         <v>MAX_CONTRACT_THRESHOLD</v>
       </c>
       <c r="T42" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U42" s="32"/>
       <c r="V42" s="27">
@@ -3427,7 +3464,7 @@
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3458,7 +3495,7 @@
     <row r="44" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3492,7 +3529,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -3515,13 +3552,13 @@
       <c r="O45" s="23"/>
       <c r="P45" s="23"/>
       <c r="Q45" s="23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R45" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S45" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T45" s="26"/>
       <c r="U45" s="31"/>
@@ -3531,7 +3568,7 @@
       <c r="W45" s="23"/>
       <c r="X45" s="23"/>
       <c r="Y45" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Z45" s="25"/>
       <c r="AA45" s="25" t="s">
@@ -3547,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -3563,10 +3600,10 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
@@ -3577,7 +3614,7 @@
       <c r="W46" s="29"/>
       <c r="X46" s="29"/>
       <c r="Y46" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Z46" s="8"/>
       <c r="AA46" s="7" t="s">
@@ -3619,7 +3656,7 @@
       <c r="W47" s="30"/>
       <c r="X47" s="30"/>
       <c r="Y47" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Z47" s="12"/>
       <c r="AA47" s="12" t="s">
@@ -3633,7 +3670,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -3650,7 +3687,7 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S48" s="40"/>
       <c r="T48" s="14"/>
@@ -3661,7 +3698,7 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5" t="s">
@@ -3676,7 +3713,7 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
@@ -3703,10 +3740,10 @@
         <v>GEO_LOCATION_SCOPE</v>
       </c>
       <c r="T49" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U49" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V49" s="27" t="s">
         <v>4</v>
@@ -3737,7 +3774,7 @@
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3768,7 +3805,7 @@
     <row r="51" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -3802,7 +3839,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -3825,13 +3862,13 @@
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="R52" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S52" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T52" s="26"/>
       <c r="U52" s="31"/>
@@ -3841,7 +3878,7 @@
       <c r="W52" s="23"/>
       <c r="X52" s="23"/>
       <c r="Y52" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Z52" s="25"/>
       <c r="AA52" s="25" t="s">
@@ -3857,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -3873,10 +3910,10 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
@@ -3887,7 +3924,7 @@
       <c r="W53" s="29"/>
       <c r="X53" s="29"/>
       <c r="Y53" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Z53" s="8"/>
       <c r="AA53" s="7" t="s">
@@ -3929,7 +3966,7 @@
       <c r="W54" s="30"/>
       <c r="X54" s="30"/>
       <c r="Y54" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Z54" s="12"/>
       <c r="AA54" s="12" t="s">
@@ -3943,7 +3980,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -3969,7 +4006,7 @@
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5" t="s">
@@ -3984,7 +4021,7 @@
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
@@ -4011,7 +4048,7 @@
         <v>TEMPORAL_LAPSE</v>
       </c>
       <c r="T56" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U56" s="32"/>
       <c r="V56" s="27">
@@ -4043,7 +4080,7 @@
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -4074,7 +4111,7 @@
     <row r="58" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -4111,11 +4148,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4130,8 +4165,10 @@
     <col min="18" max="18" width="46.44140625" customWidth="1"/>
     <col min="19" max="19" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" customWidth="1"/>
     <col min="23" max="23" width="14.77734375" customWidth="1"/>
     <col min="24" max="24" width="12.77734375" customWidth="1"/>
+    <col min="25" max="25" width="36.21875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4264,40 +4301,40 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X2" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="AA2" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -4305,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -4328,10 +4365,10 @@
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S3" s="23"/>
       <c r="T3" s="26"/>
@@ -4342,7 +4379,7 @@
       <c r="W3" s="23"/>
       <c r="X3" s="23"/>
       <c r="Y3" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Z3" s="25" t="s">
         <v>1</v>
@@ -4360,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4376,10 +4413,10 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="8"/>
@@ -4390,7 +4427,7 @@
       <c r="W4" s="29"/>
       <c r="X4" s="29"/>
       <c r="Y4" s="33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Z4" s="7" t="s">
         <v>1</v>
@@ -4434,7 +4471,7 @@
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Z5" s="12" t="s">
         <v>1</v>
@@ -4450,7 +4487,7 @@
       <c r="A6" s="38"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4467,7 +4504,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="14"/>
@@ -4478,7 +4515,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Z6" s="5" t="s">
         <v>1</v>
@@ -4495,7 +4532,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -4522,10 +4559,10 @@
         <v>EU_MS_ACTING_SCOPE</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V7" s="27" t="s">
         <v>4</v>
@@ -4557,7 +4594,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -4573,7 +4610,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="14"/>
@@ -4584,7 +4621,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Z8" s="5" t="s">
         <v>1</v>
@@ -4602,7 +4639,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -4628,10 +4665,10 @@
         <v>MAX_CONTRACT_THRESHOLD</v>
       </c>
       <c r="T9" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="V9" s="27">
         <v>1</v>
@@ -4663,7 +4700,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -4694,7 +4731,7 @@
       <c r="A11" s="38"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -4725,7 +4762,7 @@
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4759,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -4782,10 +4819,10 @@
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S13" s="23"/>
       <c r="T13" s="26"/>
@@ -4796,7 +4833,7 @@
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
       <c r="Y13" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Z13" s="25" t="s">
         <v>1</v>
@@ -4814,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -4830,10 +4867,10 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S14" s="6"/>
       <c r="T14" s="8"/>
@@ -4844,7 +4881,7 @@
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
       <c r="Y14" s="33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z14" s="7" t="s">
         <v>1</v>
@@ -4888,7 +4925,7 @@
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
       <c r="Y15" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Z15" s="12" t="s">
         <v>1</v>
@@ -4904,7 +4941,7 @@
       <c r="A16" s="38"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -4921,7 +4958,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="14"/>
@@ -4932,7 +4969,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Z16" s="5" t="s">
         <v>1</v>
@@ -4949,7 +4986,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
@@ -4976,10 +5013,10 @@
         <v>EU_MS_ACTING_SCOPE</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V17" s="27" t="s">
         <v>4</v>
@@ -5011,7 +5048,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -5027,7 +5064,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="14"/>
@@ -5038,7 +5075,7 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Z18" s="5" t="s">
         <v>1</v>
@@ -5056,7 +5093,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
@@ -5082,10 +5119,10 @@
         <v>MAX_CONTRACT_THRESHOLD</v>
       </c>
       <c r="T19" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="V19" s="27">
         <v>1</v>
@@ -5118,7 +5155,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -5133,7 +5170,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="14"/>
@@ -5144,7 +5181,7 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5" t="s">
@@ -5161,7 +5198,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -5186,7 +5223,7 @@
         <v>TEMPORAL_LAPSE</v>
       </c>
       <c r="T21" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U21" s="32"/>
       <c r="V21" s="27">
@@ -5220,7 +5257,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -5251,7 +5288,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -5282,7 +5319,7 @@
       <c r="A24" s="38"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -5313,7 +5350,7 @@
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5342,9 +5379,452 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
+    <row r="26" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37">
+        <v>3</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="R26" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="S26" s="23"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z26" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="25"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="6"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="14">
+        <v>1</v>
+      </c>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="32" t="str">
+        <f>DED!$C$8</f>
+        <v>Maximum quantity of businesses created</v>
+      </c>
+      <c r="R30" s="32" t="str">
+        <f>DED!$D$8</f>
+        <v>The maximum number of businesses a Mandator can create on behalf of the Mandator</v>
+      </c>
+      <c r="S30" s="27" t="str">
+        <f>DED!$B$8</f>
+        <v>MAX_BUSINESS_CREATION</v>
+      </c>
+      <c r="T30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="U30" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="V30" s="27">
+        <v>1</v>
+      </c>
+      <c r="W30" s="27" t="str">
+        <f>DED!$E$8</f>
+        <v>QuantityType</v>
+      </c>
+      <c r="X30" s="27" t="str">
+        <f>DED!$F$8</f>
+        <v>ccts:Quantity</v>
+      </c>
+      <c r="Y30" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="27" t="str">
+        <f>IF(DED!$H$8=0,"",DED!$H$8)</f>
+        <v>unitCode="BUSINESS"</v>
+      </c>
+      <c r="AB30" s="32"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="14">
+        <v>1</v>
+      </c>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="32" t="str">
+        <f>DED!$C$11</f>
+        <v>Power use validity period</v>
+      </c>
+      <c r="R33" s="32" t="str">
+        <f>DED!$D$11</f>
+        <v>The lapse of time during which a power can be used</v>
+      </c>
+      <c r="S33" s="27" t="str">
+        <f>DED!$B$11</f>
+        <v>TEMPORAL_LAPSE</v>
+      </c>
+      <c r="T33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="U33" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="V33" s="27">
+        <v>1</v>
+      </c>
+      <c r="W33" s="27" t="str">
+        <f>DED!$E$11</f>
+        <v>PeriodType</v>
+      </c>
+      <c r="X33" s="27" t="str">
+        <f>DED!$F$11</f>
+        <v>ubl:Period</v>
+      </c>
+      <c r="Y33" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="27" t="str">
+        <f>IF(DED!$H$10=0,"",DED!$H$10)</f>
+        <v/>
+      </c>
+      <c r="AB33" s="32" t="str">
+        <f>IF(DED!$I$11=0,"",DED!$I$11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Y26" r:id="rId1" location="MaxQuantityBusinessCreationAndPeriodConstraint" display="http://purl.com/isa2/pam#MaxQuantityBusinessCreationAndPeriodConstraint"/>
+    <hyperlink ref="Y30" r:id="rId2" location="MaxQuantityBusinessCreationProperty" display="http://purl.com/isa2/pam#MaxQuantityBusinessCreationProperty"/>
+    <hyperlink ref="Y29" r:id="rId3" location="MaxQuantityBusinessCreationGroup" display="http://purl.com/isa2/pam#MaxQuantityBusinessCreationGroup"/>
+    <hyperlink ref="Y33" r:id="rId4" location="PowerUseValidityPeriodProperty" display="http://data.eu/isa2/pam#PowerUseValidityPeriodProperty"/>
+    <hyperlink ref="Y32" r:id="rId5" location="PowerUseValidityPeriodGroup" display="http://data.eu/isa2/pam#PowerUseValidityPeriodGroup"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -5371,36 +5851,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="G3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -5408,25 +5888,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -5434,25 +5914,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -5460,22 +5940,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -5483,22 +5963,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -5506,22 +5986,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
         <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -5529,25 +6009,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" t="s">
         <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -5555,25 +6035,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -5581,19 +6061,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
